--- a/Oscilation Period and Amplitude.xlsx
+++ b/Oscilation Period and Amplitude.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucde\OneDrive\Documenten\GitHub\B08\B08_SVV_Flight_Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E21FF6-7DCD-4A14-9097-BB53E5EA5D91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790EF3EE-7C72-420F-9B50-08A67ADFE72F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5424" yWindow="-4176" windowWidth="17280" windowHeight="9108" xr2:uid="{EDE3A8E9-980C-4503-A0CE-8C6563F00B4E}"/>
+    <workbookView xWindow="-9660" yWindow="5100" windowWidth="21600" windowHeight="11385" xr2:uid="{EDE3A8E9-980C-4503-A0CE-8C6563F00B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="18">
   <si>
     <t>Phugoid</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Dutch Roll damped</t>
+  </si>
+  <si>
+    <t>Real</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02729EF1-09D2-4B4F-81CA-C0DD595F7C8E}">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="L22" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,6 +1306,866 @@
         <v>1.4907E-2</v>
       </c>
     </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" t="s">
+        <v>12</v>
+      </c>
+      <c r="S31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>20.3</v>
+      </c>
+      <c r="C32">
+        <v>137.1</v>
+      </c>
+      <c r="D32">
+        <v>137.1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f>(C34-B34)/2.5</f>
+        <v>46.839999999999996</v>
+      </c>
+      <c r="L32" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N32">
+        <v>7.1</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <f>(N34-M34)</f>
+        <v>3.05</v>
+      </c>
+      <c r="S32" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32">
+        <v>4.8</v>
+      </c>
+      <c r="U32">
+        <v>9.1</v>
+      </c>
+      <c r="V32">
+        <v>9.1</v>
+      </c>
+      <c r="W32" t="s">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <f>(U34-T34)</f>
+        <v>2.8000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>43.5</v>
+      </c>
+      <c r="C33">
+        <v>160.9</v>
+      </c>
+      <c r="D33">
+        <v>113.9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <f>((B37-C37)*D34+(D37-B37)*C34)/(D37-C37)-B34</f>
+        <v>108.55699541284403</v>
+      </c>
+      <c r="M33">
+        <v>5.7</v>
+      </c>
+      <c r="N33">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O33">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <f>((M37-N37)*O34+(O37-M37)*N34)/(O37-N37)-M34</f>
+        <v>3.4027266171086215</v>
+      </c>
+      <c r="T33">
+        <v>6.2</v>
+      </c>
+      <c r="U33">
+        <v>7.5</v>
+      </c>
+      <c r="V33">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W33" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <f>((T37-U37)*V34+(V37-T37)*U34)/(V37-U37)-T34</f>
+        <v>3.3250861293025853</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>(B33+B32)/2</f>
+        <v>31.9</v>
+      </c>
+      <c r="C34">
+        <f>(C33+C32)/2</f>
+        <v>149</v>
+      </c>
+      <c r="D34">
+        <f>(D33+D32)/2</f>
+        <v>125.5</v>
+      </c>
+      <c r="M34">
+        <f>(M33+M32)/2</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N34">
+        <f>(N33+N32)/2</f>
+        <v>7.95</v>
+      </c>
+      <c r="O34">
+        <f>(O33+O32)/2</f>
+        <v>9.4</v>
+      </c>
+      <c r="T34">
+        <f>(T33+T32)/2</f>
+        <v>5.5</v>
+      </c>
+      <c r="U34">
+        <f>(U33+U32)/2</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="V34">
+        <f>(V33+V32)/2</f>
+        <v>9.6499999999999986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="C35">
+        <v>108.6</v>
+      </c>
+      <c r="D35">
+        <v>108.6</v>
+      </c>
+      <c r="M35">
+        <v>-8.8230000000000003E-2</v>
+      </c>
+      <c r="N35">
+        <v>-1.184E-2</v>
+      </c>
+      <c r="O35">
+        <v>7.8289999999999998E-2</v>
+      </c>
+      <c r="T35">
+        <v>-0.13469999999999999</v>
+      </c>
+      <c r="U35">
+        <v>3.7670000000000002E-2</v>
+      </c>
+      <c r="V35">
+        <v>3.7670000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>117.7</v>
+      </c>
+      <c r="C36">
+        <v>88.66</v>
+      </c>
+      <c r="D36">
+        <v>84.3</v>
+      </c>
+      <c r="M36">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="N36">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="T36">
+        <v>4.5449999999999997E-2</v>
+      </c>
+      <c r="U36">
+        <v>-0.09</v>
+      </c>
+      <c r="V36">
+        <v>6.6569999999999997E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>(B36-B35)/2</f>
+        <v>21.524999999999999</v>
+      </c>
+      <c r="C37">
+        <f>C35-C36</f>
+        <v>19.939999999999998</v>
+      </c>
+      <c r="D37">
+        <f>D35-D36</f>
+        <v>24.299999999999997</v>
+      </c>
+      <c r="M37">
+        <f>(M36-M35)/2</f>
+        <v>9.9214999999999998E-2</v>
+      </c>
+      <c r="N37">
+        <f>(N36-N35)</f>
+        <v>0.12114</v>
+      </c>
+      <c r="O37">
+        <f>(O36-O35)</f>
+        <v>3.1009999999999996E-2</v>
+      </c>
+      <c r="T37">
+        <f>(T36-T35)/2</f>
+        <v>9.0074999999999988E-2</v>
+      </c>
+      <c r="U37">
+        <f>-(U36-U35)</f>
+        <v>0.12767000000000001</v>
+      </c>
+      <c r="V37">
+        <f>-(V36-V35)</f>
+        <v>3.1013000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>21.9</v>
+      </c>
+      <c r="C39">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="D39">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f>(C41-B41)/2</f>
+        <v>46.599999999999994</v>
+      </c>
+      <c r="H39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <f>19.9-0.4</f>
+        <v>19.5</v>
+      </c>
+      <c r="L39" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>3.5</v>
+      </c>
+      <c r="N39">
+        <v>7.8</v>
+      </c>
+      <c r="O39">
+        <v>10.8</v>
+      </c>
+      <c r="P39" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <f>(N41-M41)/3*2</f>
+        <v>2.8666666666666671</v>
+      </c>
+      <c r="S39" t="s">
+        <v>15</v>
+      </c>
+      <c r="T39">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="U39">
+        <v>9.6</v>
+      </c>
+      <c r="V39">
+        <v>9.6</v>
+      </c>
+      <c r="W39" t="s">
+        <v>2</v>
+      </c>
+      <c r="X39">
+        <f>(U41-T41)/3*2</f>
+        <v>2.7333333333333325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>43.9</v>
+      </c>
+      <c r="C40">
+        <v>114.5</v>
+      </c>
+      <c r="D40">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <f>((B44-C44)*D41+(D44-B44)*C41)/(D44-C44)-B41</f>
+        <v>109.12489539748961</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O40">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P40" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <f>((N44-M44)*O41+(M44-O44)*N41)/(N44-O44)-M41</f>
+        <v>4.4155077767612081</v>
+      </c>
+      <c r="T40">
+        <v>5.5</v>
+      </c>
+      <c r="U40">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="V40">
+        <v>10.7</v>
+      </c>
+      <c r="W40" t="s">
+        <v>4</v>
+      </c>
+      <c r="X40">
+        <f>((T44-U44)*V41+(V44-T44)*U41)/(V44-U44)-T41</f>
+        <v>4.2942194403534595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>(B40+B39)/2</f>
+        <v>32.9</v>
+      </c>
+      <c r="C41">
+        <f>(C40+C39)/2</f>
+        <v>126.1</v>
+      </c>
+      <c r="D41">
+        <f>(D40+D39)/2</f>
+        <v>149.44999999999999</v>
+      </c>
+      <c r="M41">
+        <f>(M40+M39)/2</f>
+        <v>4.25</v>
+      </c>
+      <c r="N41">
+        <f>(N40+N39)/2</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="O41">
+        <f>(O40+O39)/2</f>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="T41">
+        <f>(T40+T39)/2</f>
+        <v>4.8</v>
+      </c>
+      <c r="U41">
+        <f>(U40+U39)/2</f>
+        <v>8.8999999999999986</v>
+      </c>
+      <c r="V41">
+        <f>(V40+V39)/2</f>
+        <v>10.149999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5.7189999999999998E-2</v>
+      </c>
+      <c r="C42">
+        <v>8.1920000000000007E-2</v>
+      </c>
+      <c r="D42">
+        <v>8.1920000000000007E-2</v>
+      </c>
+      <c r="M42">
+        <v>-0.1096</v>
+      </c>
+      <c r="N42">
+        <v>0.12</v>
+      </c>
+      <c r="O42">
+        <v>5.4420000000000003E-2</v>
+      </c>
+      <c r="T42">
+        <v>-0.1177</v>
+      </c>
+      <c r="U42">
+        <v>-3.687E-2</v>
+      </c>
+      <c r="V42">
+        <v>-3.687E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>8.8969999999999994E-2</v>
+      </c>
+      <c r="C43">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="D43">
+        <v>6.6790000000000002E-2</v>
+      </c>
+      <c r="M43">
+        <v>0.20130000000000001</v>
+      </c>
+      <c r="N43">
+        <v>-4.0500000000000001E-2</v>
+      </c>
+      <c r="O43">
+        <v>-4.0500000000000001E-2</v>
+      </c>
+      <c r="T43">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="U43">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="V43">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>(B43-B42)/2</f>
+        <v>1.5889999999999998E-2</v>
+      </c>
+      <c r="C44">
+        <f>(C42-C43)</f>
+        <v>1.7520000000000008E-2</v>
+      </c>
+      <c r="D44">
+        <f>(D42-D43)</f>
+        <v>1.5130000000000005E-2</v>
+      </c>
+      <c r="M44">
+        <f>(M43-M42)/2</f>
+        <v>0.15545</v>
+      </c>
+      <c r="N44">
+        <f>(N42-N43)</f>
+        <v>0.1605</v>
+      </c>
+      <c r="O44">
+        <f>(O42-O43)</f>
+        <v>9.4920000000000004E-2</v>
+      </c>
+      <c r="T44">
+        <f>(T43-T42)/2</f>
+        <v>0.1641</v>
+      </c>
+      <c r="U44">
+        <f>-(U42-U43)</f>
+        <v>0.17886999999999997</v>
+      </c>
+      <c r="V44">
+        <f>-(V42-V43)</f>
+        <v>8.3809999999999996E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>32.5</v>
+      </c>
+      <c r="C46">
+        <v>126</v>
+      </c>
+      <c r="D46">
+        <v>170.2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <f>(C48-B48)/2</f>
+        <v>46.849999999999994</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>14</v>
+      </c>
+      <c r="M46">
+        <v>4.2</v>
+      </c>
+      <c r="N46">
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>7.1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <f>(N48-M48)/3*2</f>
+        <v>2.9</v>
+      </c>
+      <c r="S46" t="s">
+        <v>14</v>
+      </c>
+      <c r="T46">
+        <v>4.8</v>
+      </c>
+      <c r="U46">
+        <v>10</v>
+      </c>
+      <c r="V46">
+        <v>7.5</v>
+      </c>
+      <c r="W46" t="s">
+        <v>2</v>
+      </c>
+      <c r="X46">
+        <f>(U48-T48)/3*2</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>55.5</v>
+      </c>
+      <c r="C47">
+        <v>149.4</v>
+      </c>
+      <c r="D47">
+        <v>149.4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <f>((B51-C51)*D48+(D51-B51)*C48)/(D51-C51)-B48</f>
+        <v>101.93769693032317</v>
+      </c>
+      <c r="M47">
+        <v>5.6</v>
+      </c>
+      <c r="N47">
+        <v>8.5</v>
+      </c>
+      <c r="O47">
+        <v>8.5</v>
+      </c>
+      <c r="P47" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <f>((N51-M51)*O48+(M51-O51)*N48)/(N51-O51)-M48</f>
+        <v>3.4557102925027436</v>
+      </c>
+      <c r="T47">
+        <v>6.1</v>
+      </c>
+      <c r="U47">
+        <v>8.9</v>
+      </c>
+      <c r="V47">
+        <v>8.9</v>
+      </c>
+      <c r="W47" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47">
+        <f>((T51-U51)*V48+(V51-T51)*U48)/(V51-U51)-T48</f>
+        <v>3.3193272605092226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f>(B47+B46)/2</f>
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <f>(C47+C46)/2</f>
+        <v>137.69999999999999</v>
+      </c>
+      <c r="D48">
+        <f>(D47+D46)/2</f>
+        <v>159.80000000000001</v>
+      </c>
+      <c r="M48">
+        <f>(M47+M46)/2</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N48">
+        <f>(N47+N46)/2</f>
+        <v>9.25</v>
+      </c>
+      <c r="O48">
+        <f>(O47+O46)/2</f>
+        <v>7.8</v>
+      </c>
+      <c r="T48">
+        <f>(T47+T46)/2</f>
+        <v>5.4499999999999993</v>
+      </c>
+      <c r="U48">
+        <f>(U47+U46)/2</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="V48">
+        <f>(V47+V46)/2</f>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>-0.23860000000000001</v>
+      </c>
+      <c r="C49">
+        <v>-0.108</v>
+      </c>
+      <c r="D49">
+        <v>-4.6429999999999999E-2</v>
+      </c>
+      <c r="M49">
+        <v>0.21049999999999999</v>
+      </c>
+      <c r="N49">
+        <v>6.9529999999999995E-2</v>
+      </c>
+      <c r="O49">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="T49">
+        <v>0.2243</v>
+      </c>
+      <c r="U49">
+        <v>5.357E-2</v>
+      </c>
+      <c r="V49">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.3175</v>
+      </c>
+      <c r="C50">
+        <v>0.193</v>
+      </c>
+      <c r="D50">
+        <v>0.193</v>
+      </c>
+      <c r="M50">
+        <v>-0.2424</v>
+      </c>
+      <c r="N50">
+        <v>-9.5140000000000002E-2</v>
+      </c>
+      <c r="O50">
+        <v>-9.5140000000000002E-2</v>
+      </c>
+      <c r="T50">
+        <v>-0.2641</v>
+      </c>
+      <c r="U50">
+        <v>-0.1177</v>
+      </c>
+      <c r="V50">
+        <v>-0.1177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f>(B50-B49)/2</f>
+        <v>0.27805000000000002</v>
+      </c>
+      <c r="C51">
+        <f>-(C49-C50)</f>
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D51">
+        <f>-(D49-D50)</f>
+        <v>0.23943</v>
+      </c>
+      <c r="M51">
+        <f>(M49-M50)/2</f>
+        <v>0.22644999999999998</v>
+      </c>
+      <c r="N51">
+        <f>-(N50-N49)</f>
+        <v>0.16466999999999998</v>
+      </c>
+      <c r="O51">
+        <f>-(O50-O49)</f>
+        <v>0.26483999999999996</v>
+      </c>
+      <c r="T51">
+        <f>-(T50-T49)/2</f>
+        <v>0.2442</v>
+      </c>
+      <c r="U51">
+        <f>(U49-U50)</f>
+        <v>0.17127000000000001</v>
+      </c>
+      <c r="V51">
+        <f>(V49-V50)</f>
+        <v>0.30520000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>22.2</v>
+      </c>
+      <c r="C53">
+        <v>137.5</v>
+      </c>
+      <c r="D53">
+        <v>137.5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <f>(C55-B55)/2</f>
+        <v>46.525000000000006</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <f>19.3-0.2</f>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>43.5</v>
+      </c>
+      <c r="C54">
+        <v>114.3</v>
+      </c>
+      <c r="D54">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <f>((B58-C58)*D55+(D58-B58)*C55)/(D58-C58)-B55</f>
+        <v>108.55682492581604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>(B54+B53)/2</f>
+        <v>32.85</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:E55" si="1">(C54+C53)/2</f>
+        <v>125.9</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>149.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>-4.2139999999999997E-2</v>
+      </c>
+      <c r="C56">
+        <v>2.0379999999999999E-2</v>
+      </c>
+      <c r="D56">
+        <v>2.0379999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>3.7589999999999998E-2</v>
+      </c>
+      <c r="C57">
+        <v>-2.3990000000000001E-2</v>
+      </c>
+      <c r="D57">
+        <v>-1.7250000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>-(B56-B57)/2</f>
+        <v>3.9864999999999998E-2</v>
+      </c>
+      <c r="C58">
+        <f>(C56-C57)</f>
+        <v>4.437E-2</v>
+      </c>
+      <c r="D58">
+        <f>(D56-D57)</f>
+        <v>3.7629999999999997E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Oscilation Period and Amplitude.xlsx
+++ b/Oscilation Period and Amplitude.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucde\OneDrive\Documenten\GitHub\B08\B08_SVV_Flight_Dynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Leanne/Desktop/SVV Flight/B08_SVV_Flight_Dynamics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E21FF6-7DCD-4A14-9097-BB53E5EA5D91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA143C6-9C9F-874A-8A6C-80243F938DED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5424" yWindow="-4176" windowWidth="17280" windowHeight="9108" xr2:uid="{EDE3A8E9-980C-4503-A0CE-8C6563F00B4E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EDE3A8E9-980C-4503-A0CE-8C6563F00B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -429,19 +434,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02729EF1-09D2-4B4F-81CA-C0DD595F7C8E}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -514,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>43.7</v>
       </c>
@@ -564,7 +569,7 @@
         <v>2.7974531641198306</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4">
         <f>(B3+B2)/2</f>
         <v>32.150000000000006</v>
@@ -602,7 +607,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>79.3</v>
       </c>
@@ -631,7 +636,7 @@
         <v>-0.1343</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>97.17</v>
       </c>
@@ -660,7 +665,7 @@
         <v>5.8900000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7">
         <f>(B6-B5)/2</f>
         <v>8.9350000000000023</v>
@@ -698,7 +703,7 @@
         <v>0.19320000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -767,7 +772,7 @@
         <v>2.8333333333333339</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>45</v>
       </c>
@@ -817,7 +822,7 @@
         <v>4.2078225870726085</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11">
         <f>(B10+B9)/2</f>
         <v>33</v>
@@ -855,7 +860,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>8.6180000000000007E-2</v>
       </c>
@@ -884,7 +889,7 @@
         <v>0.10009999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>9.9989999999999996E-2</v>
       </c>
@@ -913,7 +918,7 @@
         <v>-0.18940000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14">
         <f>(B13-B12)/2</f>
         <v>6.9049999999999945E-3</v>
@@ -951,7 +956,7 @@
         <v>0.28949999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1025,7 @@
         <v>2.7333333333333338</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>55.5</v>
       </c>
@@ -1070,7 +1075,7 @@
         <v>3.2937840217739369</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>(B17+B16)/2</f>
         <v>43.95</v>
@@ -1108,7 +1113,7 @@
         <v>6.0500000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>-4.4650000000000002E-2</v>
       </c>
@@ -1137,7 +1142,7 @@
         <v>-0.1295</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0.1963</v>
       </c>
@@ -1166,7 +1171,7 @@
         <v>0.18160000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B21">
         <f>(B20-B19)/2</f>
         <v>0.120475</v>
@@ -1204,7 +1209,7 @@
         <v>0.31110000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1240,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>66.5</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>123.81884344766934</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B25">
         <f>(B24+B23)/2</f>
         <v>55.5</v>
@@ -1267,7 +1272,7 @@
         <v>191.05</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1.6709999999999999E-2</v>
       </c>
@@ -1278,7 +1283,7 @@
         <v>7.9649999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>-1.5469999999999999E-2</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>-6.9420000000000003E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B28">
         <f>(B26-B27)/2</f>
         <v>1.609E-2</v>
